--- a/ig/ch-epl/StructureDefinition-ch-idmp-ingredient.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-idmp-ingredient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -783,7 +783,7 @@
     <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-function|5.0.0</t>
   </si>
   <si>
     <t>Ingredient.group</t>
@@ -884,7 +884,7 @@
     <t>Ingredient.manufacturer.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -915,7 +915,7 @@
     <t>Ingredient.substance.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(SubstanceDefinition)
+    <t xml:space="preserve">CodeableReference(SubstanceDefinition|5.0.0)
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
     <t>Jurisdiction codes</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/country</t>
+    <t>http://hl7.org/fhir/ValueSet/country|5.0.0</t>
   </si>
   <si>
     <t>Strength.Country</t>
@@ -1167,7 +1167,7 @@
     <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/substance-codes|5.0.0</t>
   </si>
   <si>
     <t>Reference Strength.Reference Substance</t>
